--- a/data/input/absenteeism_data_31.xlsx
+++ b/data/input/absenteeism_data_31.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47290</v>
+        <v>59676</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthony Silva</t>
+          <t>Cecília Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>10445.96</v>
+        <v>11894.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>78551</v>
+        <v>91259</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Carolina Lopes</t>
+          <t>Juan Monteiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>4324.66</v>
+        <v>8509.299999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24814</v>
+        <v>57020</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Larissa Barros</t>
+          <t>Maria Clara Correia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,147 +548,147 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>3918.05</v>
+        <v>9374.790000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58971</v>
+        <v>28327</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Juliana Freitas</t>
+          <t>Juan Nascimento</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>4597.36</v>
+        <v>12134.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69678</v>
+        <v>62106</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sophie Pinto</t>
+          <t>Evelyn Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>2683.2</v>
+        <v>3935.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8263</v>
+        <v>3166</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arthur Novaes</t>
+          <t>Gustavo Nunes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>2971.39</v>
+        <v>2619.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36935</v>
+        <v>80727</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sarah Ferreira</t>
+          <t>Luiz Henrique Caldeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>4389.81</v>
+        <v>7431.71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7096</v>
+        <v>69604</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Natália Costela</t>
+          <t>Luiz Gustavo da Mata</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,68 +700,68 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>5236.63</v>
+        <v>7936.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74301</v>
+        <v>82903</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Camila Rezende</t>
+          <t>Ana Sophia Teixeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>7927.06</v>
+        <v>7650.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18749</v>
+        <v>97108</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Benjamin Barbosa</t>
+          <t>Dra. Larissa Santos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>7196.21</v>
+        <v>7912.5</v>
       </c>
     </row>
   </sheetData>
